--- a/biology/Zoologie/Catopyrops/Catopyrops.xlsx
+++ b/biology/Zoologie/Catopyrops/Catopyrops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catopyrops est un genre de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Catopyrops a été décrit par le lépidoptériste néerlandais Lambertus Johannes Toxopeus (en) en 1929. Son espèce type est Lycaena ancyra Felder, 1860[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Catopyrops a été décrit par le lépidoptériste néerlandais Lambertus Johannes Toxopeus (en) en 1929. Son espèce type est Lycaena ancyra Felder, 1860.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Euchrysops sont originaires d'Océanie et d'Asie du Sud-Est[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Euchrysops sont originaires d'Océanie et d'Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon FUNET Tree of Life  (3 juillet 2020)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon FUNET Tree of Life  (3 juillet 2020) :
 Catopyrops ancyra (Felder, 1860) — de l'Inde à l'Australie et aux îles Salomon.
 Catopyrops zyx Parsons, 1986 — aux îles Salomon.
 Catopyrops rita (Grose-Smith, 1895) — en Indonésie.
